--- a/dbc.xlsx
+++ b/dbc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiwi\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DB1A9D-6403-4EA7-9805-6F224C4D346F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E8DE34-96DD-4A71-BBBF-D9A7341E069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3658AF8B-13F4-4E48-B915-08D72F74F79C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3658AF8B-13F4-4E48-B915-08D72F74F79C}"/>
   </bookViews>
   <sheets>
     <sheet name="DBC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t xml:space="preserve">message </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,9 +104,6 @@
     <t>CheckSum_ABM1</t>
   </si>
   <si>
-    <t>MSB</t>
-  </si>
-  <si>
     <t>Unsigned</t>
   </si>
   <si>
@@ -155,14 +152,6 @@
     <t>MAC_Check_ABM1</t>
   </si>
   <si>
-    <t>msb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lsb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unsigned</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +183,39 @@
   <si>
     <t>msg sendtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motorola</t>
+  </si>
+  <si>
+    <t>Motorola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Signed</t>
   </si>
 </sst>
 </file>
@@ -870,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E65271D-91C9-43CE-9AF2-DCA182C6A819}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -882,7 +904,7 @@
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -934,8 +956,14 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -949,10 +977,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
@@ -964,10 +992,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -985,14 +1013,20 @@
         <v>255</v>
       </c>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6">
         <v>9</v>
@@ -1001,11 +1035,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" s="6">
         <v>0</v>
       </c>
@@ -1023,13 +1057,13 @@
       </c>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="G4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6">
         <v>10</v>
@@ -1038,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -1060,13 +1094,13 @@
       </c>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="G5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6">
         <v>11</v>
@@ -1075,11 +1109,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" s="6">
         <v>0</v>
       </c>
@@ -1097,13 +1131,13 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="6">
         <v>12</v>
@@ -1112,11 +1146,11 @@
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L6" s="6">
         <v>0</v>
       </c>
@@ -1134,13 +1168,13 @@
       </c>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="G7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="6">
         <v>13</v>
@@ -1149,11 +1183,11 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" s="6">
         <v>0</v>
       </c>
@@ -1171,13 +1205,13 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="13">
         <v>14</v>
@@ -1186,11 +1220,11 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L8" s="6">
         <v>0</v>
       </c>
@@ -1208,13 +1242,13 @@
       </c>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="13">
         <v>23</v>
@@ -1223,10 +1257,10 @@
         <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1245,13 +1279,13 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="13">
         <v>25</v>
@@ -1260,10 +1294,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1282,13 +1316,13 @@
       </c>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="13">
         <v>27</v>
@@ -1297,10 +1331,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -1319,13 +1353,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="13">
         <v>29</v>
@@ -1334,10 +1368,10 @@
         <v>2</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1356,13 +1390,13 @@
       </c>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="13">
         <v>31</v>
@@ -1371,10 +1405,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -1393,13 +1427,13 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="G14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="13">
         <v>33</v>
@@ -1408,10 +1442,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1430,13 +1464,13 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="G15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="13">
         <v>59</v>
@@ -1445,10 +1479,10 @@
         <v>4</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -1467,13 +1501,13 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="G16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="13">
         <v>71</v>
@@ -1482,10 +1516,10 @@
         <v>16</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -1510,7 +1544,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="G17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="13">
         <v>87</v>
@@ -1519,10 +1553,10 @@
         <v>48</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -1587,18 +1621,15 @@
   <conditionalFormatting sqref="G16:G17">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K17" xr:uid="{2B6579D4-4802-4E29-ADDB-6504CAF4B403}">
       <formula1>"Unsigned,Signed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17" xr:uid="{50112B27-C7A6-4324-B723-22B1F1EDCA75}">
-      <formula1>"MSB,LSB"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{15760A2F-EBCC-4608-881E-B629CF69A6DD}">
           <x14:formula1>
             <xm:f>Sheet2!$E$1:$E$3</xm:f>
@@ -1611,6 +1642,12 @@
           </x14:formula1>
           <xm:sqref>F2:F17</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E55C068-FD8B-41D1-A32F-859B0EF29340}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J17</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1622,50 +1659,50 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
